--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_INTERIOR.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_INTERIOR.xlsx
@@ -8009,17 +8009,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>1306050002</t>
+          <t>1108060002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>CALATHEA CROCATA</t>
+          <t>HEDERA BICOLOR</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -8029,88 +8029,88 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H84" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H84" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="I84" s="4" t="n">
-        <v>118.95</v>
+        <v>127.49</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>55.94</v>
+        <v>63.7</v>
       </c>
       <c r="K84" s="4" t="n">
-        <v>31.25</v>
+        <v>150</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="N84" s="5" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>113.33</v>
+        <v>0</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T84" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T84" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>1108060002</t>
+          <t>1306050002</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>HEDERA BICOLOR</t>
+          <t>CALATHEA CROCATA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -8120,71 +8120,71 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>127.49</v>
+        <v>118.95</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>63.7</v>
+        <v>55.94</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>150</v>
+        <v>31.25</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="N85" s="5" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>0</v>
+        <v>113.33</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T85" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10094,17 +10094,17 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>1503050001</t>
+          <t>1201090025</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX</t>
+          <t>PHALAENOPSIS MINIFLORA 1SP</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>C20A40</t>
+          <t>M6A25</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10114,28 +10114,28 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>116</v>
+        <v>103.92</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>60.65</v>
+        <v>49.67</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>200</v>
+        <v>33.33</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0</v>
@@ -10147,55 +10147,55 @@
         <v>2</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R107" s="4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T107" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T107" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W107" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>1201090025</t>
+          <t>1503050001</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>PHALAENOPSIS MINIFLORA 1SP</t>
+          <t>CACTUS MIX</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>M6A25</t>
+          <t>C20A40</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10205,28 +10205,28 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>103.92</v>
+        <v>116</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>49.67</v>
+        <v>60.65</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>33.33</v>
+        <v>200</v>
       </c>
       <c r="L108" s="4" t="n">
         <v>0</v>
@@ -10238,38 +10238,38 @@
         <v>2</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T108" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T108" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W108" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13635,17 +13635,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>1106130001</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>ASPIDISTRA</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>C17A110</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -13655,49 +13655,49 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H146" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I146" s="4" t="n">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="J146" s="4" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="K146" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L146" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N146" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O146" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I146" s="4" t="n">
-        <v>83.97</v>
-      </c>
-      <c r="J146" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="K146" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L146" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M146" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N146" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O146" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="P146" s="4" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q146" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R146" s="4" t="n">
-        <v>196.67</v>
+        <v>213.33</v>
       </c>
       <c r="S146" s="5" t="n">
         <v>30</v>
@@ -13709,34 +13709,34 @@
       </c>
       <c r="U146" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V146" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W146" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1106130001</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ASPIDISTRA</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C17A110</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -13746,49 +13746,49 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H147" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I147" s="4" t="n">
+        <v>83.97</v>
+      </c>
+      <c r="J147" s="4" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="K147" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L147" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I147" s="4" t="n">
-        <v>79.65000000000001</v>
-      </c>
-      <c r="J147" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="K147" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L147" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M147" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N147" s="5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O147" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q147" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R147" s="4" t="n">
-        <v>213.33</v>
+        <v>196.67</v>
       </c>
       <c r="S147" s="5" t="n">
         <v>30</v>
@@ -13800,17 +13800,17 @@
       </c>
       <c r="U147" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V147" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W147" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16804,17 +16804,17 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>1105050024</t>
+          <t>1306150001</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON RING OF FIRE</t>
+          <t>GERBERA</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -16824,49 +16824,49 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G181" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I181" s="4" t="n">
-        <v>39.96</v>
+        <v>64.87</v>
       </c>
       <c r="J181" s="4" t="n">
-        <v>9.81</v>
+        <v>32.45</v>
       </c>
       <c r="K181" s="4" t="n">
-        <v>28.57</v>
+        <v>81.25</v>
       </c>
       <c r="L181" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M181" s="5" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N181" s="5" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O181" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P181" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q181" s="4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R181" s="4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="S181" s="5" t="n">
         <v>30</v>
@@ -16878,34 +16878,34 @@
       </c>
       <c r="U181" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V181" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W181" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>1306150001</t>
+          <t>1105050024</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>GERBERA</t>
+          <t>PHILODENDRON RING OF FIRE</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -16915,49 +16915,49 @@
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G182" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>64.87</v>
+        <v>39.96</v>
       </c>
       <c r="J182" s="4" t="n">
-        <v>32.45</v>
+        <v>9.81</v>
       </c>
       <c r="K182" s="4" t="n">
-        <v>81.25</v>
+        <v>28.57</v>
       </c>
       <c r="L182" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M182" s="5" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N182" s="5" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O182" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P182" s="4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q182" s="4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R182" s="4" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S182" s="5" t="n">
         <v>30</v>
@@ -16969,17 +16969,17 @@
       </c>
       <c r="U182" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V182" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W182" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21137,17 +21137,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1105050020</t>
+          <t>1108140017</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON BRASIL</t>
+          <t>HOYA KRIMSON QUEEN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -21172,13 +21172,13 @@
         <v>5</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>49.95</v>
+        <v>53.25</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>25.16</v>
+        <v>28.16</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -21190,55 +21190,55 @@
         <v>2.4</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1108140017</t>
+          <t>1105050020</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HOYA KRIMSON QUEEN</t>
+          <t>PHILODENDRON BRASIL</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -21263,13 +21263,13 @@
         <v>5</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>53.25</v>
+        <v>49.95</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>28.16</v>
+        <v>25.16</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
@@ -21281,38 +21281,38 @@
         <v>2.4</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -21865,61 +21865,69 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1602010078</t>
+          <t>1305200001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr"/>
+          <t>OXALIS MIX</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="J52" s="4" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="K52" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M52" s="5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S52" s="5" t="n">
         <v>30</v>
@@ -21931,86 +21939,78 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1305200001</t>
+          <t>1602010078</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>OXALIS MIX</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>M13A15</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>45.43</v>
+        <v>52.49</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>21.7</v>
+        <v>28.12</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>87.5</v>
+        <v>33.33</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -22022,17 +22022,17 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26482,17 +26482,17 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1502080006</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>PORTULACARIA MIX</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -26502,88 +26502,88 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>38.96</v>
+        <v>43.89</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>20.24</v>
+        <v>24.72</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>37.5</v>
+        <v>36.67</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="O103" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="P103" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="P103" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="Q103" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>106.67</v>
+        <v>196.67</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T103" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T103" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>1502080006</t>
+          <t>1104020006</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>PORTULACARIA MIX</t>
+          <t>ORNITHOGALUM DUBIUM</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -26593,49 +26593,49 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>43.89</v>
+        <v>35.7</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>24.72</v>
+        <v>17.27</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>36.67</v>
+        <v>75</v>
       </c>
       <c r="L104" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S104" s="5" t="n">
         <v>30</v>
@@ -26647,34 +26647,34 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W104" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>1104020006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>ORNITHOGALUM DUBIUM</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -26696,59 +26696,59 @@
         <v>30</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>35.7</v>
+        <v>38.96</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>17.27</v>
+        <v>20.24</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="L105" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>306.67</v>
+        <v>106.67</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T105" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T105" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W105" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27665,12 +27665,12 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1602010062</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TAZA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
@@ -27692,16 +27692,16 @@
         <v>1</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>39.95</v>
+        <v>34.95</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>22.32</v>
+        <v>17.77</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L116" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" s="5" t="n">
         <v>0.2</v>
@@ -27710,50 +27710,50 @@
         <v>0.5</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T116" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010087</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TETERA PEQUEÑA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
@@ -27775,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>34.95</v>
+        <v>34.49</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>17.77</v>
+        <v>17.35</v>
       </c>
       <c r="K117" s="4" t="n">
         <v>50</v>
@@ -27831,12 +27831,12 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>1602010087</t>
+          <t>1602010062</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TETERA PEQUEÑA</t>
+          <t>COMPOSICION TAZA PEQUEÑA</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr"/>
@@ -27858,16 +27858,16 @@
         <v>1</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>34.49</v>
+        <v>39.95</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>17.35</v>
+        <v>22.32</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L118" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" s="5" t="n">
         <v>0.2</v>
@@ -27876,38 +27876,38 @@
         <v>0.5</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T118" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T118" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U118" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V118" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W118" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -28270,17 +28270,17 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1201030002</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>CYMBIDIUM 2T MIX</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>M9A10</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -28290,88 +28290,88 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H123" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>41.88</v>
+        <v>33.75</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>24.51</v>
+        <v>17.12</v>
       </c>
       <c r="K123" s="4" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L123" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M123" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N123" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O123" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N123" s="5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O123" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P123" s="4" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q123" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R123" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S123" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T123" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T123" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U123" s="3" t="inlineStr">
         <is>
-          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V123" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W123" s="4" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1201030002</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>CYMBIDIUM 2T MIX</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M9A10</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -28381,71 +28381,71 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H124" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I124" s="4" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="J124" s="4" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="K124" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L124" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" s="5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O124" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I124" s="4" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="J124" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="K124" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L124" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M124" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N124" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O124" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P124" s="4" t="n">
-        <v>55</v>
-      </c>
       <c r="Q124" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T124" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T124" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>URGENTE - REPOSICIÓN INMEDIATA: Producto de alta demanda agotado. Recompra prioritaria inmediata. Aumentar compras 40%. Stock objetivo: 1 unidades. Evitar futura ruptura.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13A</t>
         </is>
       </c>
     </row>
@@ -28725,17 +28725,17 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>1106060003</t>
+          <t>1501070006</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>CROTON MIX</t>
+          <t>CACTUS MIX CAJA 9UD</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>M15A20</t>
+          <t>M3I5A5</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -28745,88 +28745,88 @@
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G128" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H128" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128" s="4" t="n">
-        <v>37</v>
+        <v>35.98</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>20.28</v>
+        <v>19.35</v>
       </c>
       <c r="K128" s="4" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="5" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N128" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R128" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S128" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T128" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T128" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U128" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V128" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W128" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>1501070006</t>
+          <t>1106060003</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX CAJA 9UD</t>
+          <t>CROTON MIX</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>M3I5A5</t>
+          <t>M15A20</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -28836,71 +28836,71 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G129" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H129" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I129" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J129" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="K129" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L129" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N129" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I129" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="J129" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="K129" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L129" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N129" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O129" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q129" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R129" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S129" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T129" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T129" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U129" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V129" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W129" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -31246,12 +31246,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1501060011</t>
+          <t>1501060012</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
+          <t>CEROPEGIA WOODII</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -31302,7 +31302,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -31337,12 +31337,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1501060012</t>
+          <t>1501060011</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CEROPEGIA WOODII</t>
+          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -31393,7 +31393,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -34787,17 +34787,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -34819,31 +34819,31 @@
         <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>19.95</v>
+        <v>29.97</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>10.25</v>
+        <v>19.36</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>0</v>
@@ -34856,12 +34856,12 @@
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -34871,24 +34871,24 @@
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -34910,31 +34910,31 @@
         <v>30</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>29.97</v>
+        <v>19.95</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>19.36</v>
+        <v>10.25</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
@@ -34947,12 +34947,12 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -35515,17 +35515,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1108140019</t>
+          <t>1105070005</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SENECIO MIX</t>
+          <t>SYNGONIUM PINK</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>C20COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -35550,13 +35550,13 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>28.98</v>
+        <v>18.98</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>19.11</v>
+        <v>10.01</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -35568,55 +35568,55 @@
         <v>1</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T50" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T50" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1105070005</t>
+          <t>1108140019</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM PINK</t>
+          <t>SENECIO MIX</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>C20COLG</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -35641,13 +35641,13 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>18.98</v>
+        <v>28.98</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>10.01</v>
+        <v>19.11</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -35659,38 +35659,38 @@
         <v>1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -36872,17 +36872,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1105010025</t>
+          <t>1106020003</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
+          <t>ALOCASIA WENTII</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -36907,16 +36907,16 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>17.5</v>
+        <v>17.95</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0.2</v>
@@ -36925,55 +36925,55 @@
         <v>0.5</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>0</v>
+        <v>246.67</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 18/03/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1106020003</t>
+          <t>1105010025</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA WENTII</t>
+          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -36998,16 +36998,16 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>17.95</v>
+        <v>17.5</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0.2</v>
@@ -37016,38 +37016,38 @@
         <v>0.5</v>
       </c>
       <c r="O66" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="P66" s="4" t="n">
-        <v>40</v>
-      </c>
       <c r="Q66" s="4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>246.67</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37857,17 +37857,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>1501070002</t>
+          <t>1107050001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CEREUS PERUVIANUS</t>
+          <t>FICUS BELICE</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -37877,43 +37877,43 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>17.94</v>
+        <v>19.9</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>10.31</v>
+        <v>12.09</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N76" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O76" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0</v>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -37948,17 +37948,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>1107050001</t>
+          <t>1501070002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>FICUS BELICE</t>
+          <t>CEREUS PERUVIANUS</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -37968,43 +37968,43 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>19.9</v>
+        <v>17.94</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>12.09</v>
+        <v>10.31</v>
       </c>
       <c r="K77" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L77" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N77" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P77" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -38312,17 +38312,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1103070001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>ZAMIOCULCAS</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -38344,76 +38344,76 @@
         <v>30</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>15.8</v>
+        <v>13.65</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T81" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T81" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>1103070001</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>ZAMIOCULCAS</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -38435,59 +38435,59 @@
         <v>30</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>13.65</v>
+        <v>15.8</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>6.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T82" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -42854,12 +42854,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1501070011</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -42910,7 +42910,7 @@
         <v>6</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q131" s="4" t="n">
         <v>59</v>
@@ -43036,12 +43036,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>1501070011</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -43092,7 +43092,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="4" t="n">
         <v>59</v>
@@ -43218,17 +43218,17 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>1502010005</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>ALOE TIKI TAHI</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M7A20</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -43238,43 +43238,43 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>6.98</v>
+        <v>5.99</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>3.93</v>
+        <v>3.03</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N135" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O135" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Q135" s="4" t="n">
         <v>0</v>
@@ -43309,17 +43309,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1502010005</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ALOE TIKI TAHI</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>M7A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -43329,43 +43329,43 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H136" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J136" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K136" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L136" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N136" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="I136" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J136" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K136" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N136" s="5" t="n">
-        <v>0.2</v>
       </c>
       <c r="O136" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>0</v>
@@ -45383,17 +45383,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>MAMMILLARIA CATERPINCY</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -45403,12 +45403,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -45427,7 +45427,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -45436,19 +45436,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>60</v>
+        <v>196.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -45457,12 +45457,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -45474,24 +45474,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>CHAMAEDOREA</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>C20A110</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -45510,7 +45518,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45519,19 +45527,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" s="6" t="inlineStr">
         <is>
@@ -45540,12 +45548,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -45557,17 +45565,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -45601,7 +45609,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -45610,19 +45618,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>113.33</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45631,12 +45639,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45648,24 +45656,32 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>FICUS GINSENG + CERAMICA</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>M15A40</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -45699,13 +45715,13 @@
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -45714,12 +45730,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -45731,17 +45747,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M13A40</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45751,12 +45767,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -45775,7 +45791,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -45784,19 +45800,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
@@ -45805,12 +45821,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -45822,17 +45838,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
+          <t>DRACAENA MARGINATA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C24A100</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45842,12 +45858,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -45866,7 +45882,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45875,19 +45891,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>196.67</v>
+        <v>93.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T7" s="6" t="inlineStr">
         <is>
@@ -45896,12 +45912,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45913,17 +45929,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45957,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45966,7 +45982,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45987,7 +46003,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -46004,17 +46020,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>C20A110</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -46024,12 +46040,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -46048,7 +46064,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -46057,19 +46073,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>60</v>
+        <v>176.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
@@ -46078,12 +46094,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -46095,17 +46111,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46115,16 +46131,16 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -46139,7 +46155,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46148,19 +46164,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>176.67</v>
+        <v>113.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -46169,12 +46185,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46186,17 +46202,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -46206,16 +46222,16 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -46230,7 +46246,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46239,19 +46255,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="6" t="inlineStr">
         <is>
@@ -46260,12 +46276,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -46277,17 +46293,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>MANGAVE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -46297,12 +46313,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -46321,7 +46337,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -46330,19 +46346,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>176.67</v>
+        <v>93.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46351,12 +46367,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46368,36 +46384,28 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>M55A10</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>0</v>
@@ -46412,7 +46420,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -46421,19 +46429,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>1314.29</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
@@ -46442,12 +46450,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -46459,17 +46467,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -46479,12 +46487,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -46503,7 +46511,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46512,16 +46520,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -46533,12 +46541,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46550,17 +46558,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -46570,16 +46578,16 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>0</v>
@@ -46594,7 +46602,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46603,19 +46611,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>93.33</v>
+        <v>113.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
@@ -46624,12 +46632,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46641,17 +46649,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -46685,7 +46693,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46694,7 +46702,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -46715,7 +46723,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -46732,17 +46740,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -46752,12 +46760,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -46776,7 +46784,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46785,16 +46793,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>286.67</v>
+        <v>613.33</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -46806,12 +46814,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -46823,24 +46831,32 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>ALOCASIA BAGINDA</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>M14A35</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46859,7 +46875,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46868,19 +46884,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>306.67</v>
+        <v>143.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -46889,12 +46905,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46906,36 +46922,28 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>M12A45</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>0</v>
@@ -46950,7 +46958,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46959,7 +46967,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -46968,7 +46976,7 @@
         <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46980,7 +46988,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -46997,36 +47005,28 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>C21A100</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>0</v>
@@ -47041,7 +47041,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47050,19 +47050,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
@@ -47071,12 +47071,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -47088,32 +47088,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>C22A150</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT IZUMI</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -47132,7 +47124,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47141,19 +47133,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>93.33</v>
+        <v>306.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
@@ -47162,12 +47154,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -47179,17 +47171,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
+          <t>STEPHANOTIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>C25A110</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -47199,16 +47191,16 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>0</v>
@@ -47223,7 +47215,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -47232,19 +47224,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>306.67</v>
+        <v>120</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
@@ -47253,12 +47245,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47270,44 +47262,52 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
@@ -47315,16 +47315,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>1314.29</v>
+        <v>196.67</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>30</v>
@@ -47336,12 +47336,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -47353,17 +47353,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>CHLOROPHYTUM</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -47373,12 +47373,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -47397,7 +47397,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47406,19 +47406,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -47427,12 +47427,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -47444,17 +47444,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -47488,7 +47488,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -47497,19 +47497,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -47518,12 +47518,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -47535,32 +47535,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>C25A40</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -47579,7 +47571,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47588,19 +47580,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
@@ -47609,12 +47601,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47626,17 +47618,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -47670,7 +47662,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47679,19 +47671,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T27" s="6" t="inlineStr">
         <is>
@@ -47700,12 +47692,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -47717,28 +47709,36 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>VRIESEA MADONNA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>M12A45</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -47753,7 +47753,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47762,7 +47762,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -47771,7 +47771,7 @@
         <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -47783,7 +47783,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -47800,17 +47800,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47844,7 +47844,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47853,19 +47853,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>93.33</v>
+        <v>306.67</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -47874,12 +47874,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47891,17 +47891,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47944,7 +47944,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
@@ -47965,7 +47965,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -47982,17 +47982,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -48002,16 +48002,16 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -48026,7 +48026,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48035,7 +48035,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -48044,7 +48044,7 @@
         <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -48056,7 +48056,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -48073,17 +48073,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48093,12 +48093,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -48117,7 +48117,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -48126,16 +48126,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -48147,12 +48147,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -48164,36 +48164,28 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>M12A40</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RAMO BOUQUET 5 ROSAS</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>0</v>
@@ -48208,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48217,7 +48209,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
@@ -48226,7 +48218,7 @@
         <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>306.67</v>
+        <v>1314.29</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>30</v>
@@ -48238,7 +48230,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -48255,17 +48247,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -48275,16 +48267,16 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -48299,7 +48291,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48308,16 +48300,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>400</v>
+        <v>306.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -48329,12 +48321,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -48346,17 +48338,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48366,16 +48358,16 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -48390,7 +48382,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -48399,16 +48391,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>213.33</v>
+        <v>196.67</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -48425,7 +48417,7 @@
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -48437,17 +48429,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -48457,12 +48449,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -48481,7 +48473,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -48490,19 +48482,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T36" s="6" t="inlineStr">
         <is>
@@ -48511,12 +48503,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -48528,17 +48520,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>C17A80</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -48572,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48581,19 +48573,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>113.33</v>
+        <v>613.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
@@ -48602,12 +48594,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -48619,12 +48611,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -48655,7 +48647,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48664,7 +48656,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -48685,7 +48677,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -48702,17 +48694,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>LILIUM ROSA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>M13A40</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -48722,16 +48714,16 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>0</v>
@@ -48746,7 +48738,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48755,19 +48747,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>106.67</v>
+        <v>613.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -48776,12 +48768,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -48793,17 +48785,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>C23A50</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48837,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48846,7 +48838,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -48867,7 +48859,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -48884,28 +48876,36 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
+          <t>BRASSIA 1SP</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>M12A55</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -48920,7 +48920,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48929,7 +48929,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
@@ -48938,7 +48938,7 @@
         <v>92</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -48950,7 +48950,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -48967,17 +48967,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>CAMPANULA + CUBRE ZINK</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -49011,7 +49011,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -49020,16 +49020,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>613.33</v>
+        <v>286.67</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -49041,12 +49041,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -49058,17 +49058,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -49078,12 +49078,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -49117,13 +49117,13 @@
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="6" t="inlineStr">
         <is>
@@ -49132,12 +49132,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -49149,17 +49149,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>C19A20</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -49169,16 +49169,16 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>0</v>
@@ -49193,7 +49193,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -49202,7 +49202,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -49211,7 +49211,7 @@
         <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S44" s="5" t="n">
         <v>30</v>
@@ -49223,7 +49223,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -49240,17 +49240,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -49284,7 +49284,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -49293,7 +49293,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
@@ -49314,7 +49314,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -49331,17 +49331,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -49351,16 +49351,16 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>0</v>
@@ -49375,7 +49375,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -49384,19 +49384,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>120</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
@@ -49405,12 +49405,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -49422,32 +49422,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>M15A40</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -49466,7 +49458,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49475,19 +49467,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -49496,12 +49488,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -49513,32 +49505,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>M65A10</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -49557,7 +49541,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -49566,16 +49550,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -49587,12 +49571,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -49604,17 +49588,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -49624,12 +49608,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -49648,7 +49632,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49657,16 +49641,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>30</v>
@@ -49678,12 +49662,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -49695,12 +49679,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -49731,7 +49715,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49740,19 +49724,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>96.67</v>
+        <v>306.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T50" s="6" t="inlineStr">
         <is>
@@ -49761,12 +49745,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -49778,24 +49762,32 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49814,7 +49806,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49823,16 +49815,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>30</v>
@@ -49844,12 +49836,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49861,28 +49853,36 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr"/>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>M9A35</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>0</v>
@@ -49897,7 +49897,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49906,19 +49906,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>110</v>
+        <v>613.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49927,12 +49927,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49944,17 +49944,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49964,12 +49964,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49988,7 +49988,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49997,16 +49997,16 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -50018,12 +50018,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -50035,12 +50035,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -50055,16 +50055,16 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>0</v>
@@ -50079,7 +50079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50088,16 +50088,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>306.67</v>
+        <v>400</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>30</v>
@@ -50109,12 +50109,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -50126,17 +50126,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>M13A50</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -50146,12 +50146,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -50170,7 +50170,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50179,16 +50179,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>613.33</v>
+        <v>213.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -50200,12 +50200,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -50217,17 +50217,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -50237,16 +50237,16 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4" t="n">
         <v>0</v>
@@ -50261,7 +50261,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50270,19 +50270,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>143.33</v>
+        <v>400</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50291,12 +50291,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50308,36 +50308,28 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>M12A40</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
@@ -50352,7 +50344,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50361,19 +50353,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
@@ -50382,12 +50374,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -50399,17 +50391,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>C32A200</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -50443,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50452,19 +50444,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>60</v>
+        <v>106.67</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
@@ -50473,12 +50465,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -50490,17 +50482,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -50510,12 +50502,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -50534,7 +50526,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50543,19 +50535,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T59" s="6" t="inlineStr">
         <is>
@@ -50564,12 +50556,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50581,17 +50573,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -50601,12 +50593,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -50625,7 +50617,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50634,19 +50626,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>196.67</v>
+        <v>93.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T60" s="6" t="inlineStr">
         <is>
@@ -50655,12 +50647,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -50672,17 +50664,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50692,16 +50684,16 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4" t="n">
         <v>0</v>
@@ -50716,7 +50708,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -50725,7 +50717,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
@@ -50734,7 +50726,7 @@
         <v>92</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S61" s="5" t="n">
         <v>30</v>
@@ -50746,7 +50738,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -50763,36 +50755,28 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>M12A55</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H62" s="4" t="n">
         <v>0</v>
@@ -50807,7 +50791,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50816,19 +50800,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -50837,12 +50821,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50854,44 +50838,52 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
+          <t>OPUNTIA RETICULATA COBRA</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
       </c>
@@ -50899,16 +50891,16 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>1314.29</v>
+        <v>196.67</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>30</v>
@@ -50920,12 +50912,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50937,24 +50929,16 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -50996,13 +50980,13 @@
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>176.67</v>
+        <v>110</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -51011,12 +50995,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -51028,24 +51012,32 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
+          <t>FICUS ELASTICA MEZCLA</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>M6A15</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -51064,7 +51056,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51073,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -51094,7 +51086,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -51111,17 +51103,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -51131,16 +51123,16 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
@@ -51155,7 +51147,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -51164,7 +51156,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
@@ -51173,7 +51165,7 @@
         <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S66" s="5" t="n">
         <v>30</v>
@@ -51185,7 +51177,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -51202,28 +51194,36 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr"/>
-      <c r="D67" s="3" t="inlineStr"/>
+          <t>SARRACENIA</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>M6A20</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -51238,7 +51238,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -51247,7 +51247,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
@@ -51256,7 +51256,7 @@
         <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>30</v>
@@ -51268,7 +51268,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
